--- a/medicine/Autisme/Regarde-moi_(film,_2018)/Regarde-moi_(film,_2018).xlsx
+++ b/medicine/Autisme/Regarde-moi_(film,_2018)/Regarde-moi_(film,_2018).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Regarde-moi est un film franco-tunisien réalisé par Nejib Belkadhi et sorti en 2018.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lotfi est un émigré tunisien qui vit dans le quartier de Noailles à Marseille où il tient une boutique d'électroménager. Il a une compagne française, Sophie, qui est enceinte. Il a laissé au pays sa femme Sarra et son petit garçon autiste de neuf ans, Youssef. Un jour, le frère de Lotfi lui téléphone pour lui annoncer une mauvaise nouvelle : Sarra est hospitalisée à la suite d'un AVC et sa belle-sœur Khadija a pris son fils en charge. Lotfi se sent obligé de rentrer en Tunisie : il s'est mis en tête de s'occuper lui-même de Youssef, malgré son état psychique et alors qu'il ne l'a pas vu depuis six ans.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Regarde-moi
 Réalisation : Nejib Belkadhi
@@ -560,7 +576,7 @@
 Casting : Audrey Gini-Ravel
 Production : Imed Marzouk, Farès Ladjmi
 Régie générale : Issam Salah
-Sociétés de production : Mille et Une Productions (France) - Propaganda Productions (Tunisie)[1]
+Sociétés de production : Mille et Une Productions (France) - Propaganda Productions (Tunisie)
 Société de distribution : Hakka Distribution
 Pays :  France -  Tunisie -  Qatar
 Format : couleurs, 2,35:1
@@ -593,7 +609,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Nidhal Saadi (ar) : Lotfi
 Saoussen Maalej : Khadija, la tante
@@ -632,11 +650,50 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Récompenses
-2018 : prix d'interprétation masculine décerné à Nidhal Saadi au Festival international du film de Marrakech
-2019 : prix du meilleur scénario au Festival panafricain du cinéma et de la télévision de Ouagadougou
-Sélections
-2018 : Journées cinématographiques de Carthage
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2018 : prix d'interprétation masculine décerné à Nidhal Saadi au Festival international du film de Marrakech
+2019 : prix du meilleur scénario au Festival panafricain du cinéma et de la télévision de Ouagadougou</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Regarde-moi_(film,_2018)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Regarde-moi_(film,_2018)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sélections</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2018 : Journées cinématographiques de Carthage
 2018 : Festival international du film de Toronto</t>
         </is>
       </c>
